--- a/Running projects/GSK Dolmen Sky Tower Clifton Karachi/VO/001- Variation order for Fan Coil unit & WCPU (captive aire).xlsx
+++ b/Running projects/GSK Dolmen Sky Tower Clifton Karachi/VO/001- Variation order for Fan Coil unit & WCPU (captive aire).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B043FEB-22A5-4741-B088-109B201160C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D336E21-3F63-4364-83B6-64B3CABCE5CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$48</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -388,6 +388,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -418,7 +419,6 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -565,15 +565,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>519544</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51956</xdr:rowOff>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>71988</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>83855</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>591534</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -596,8 +596,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7247658" y="2502479"/>
-          <a:ext cx="9181353" cy="5201376"/>
+          <a:off x="7057159" y="1939636"/>
+          <a:ext cx="8072989" cy="4528704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,9 +654,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -694,9 +694,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,9 +729,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,9 +781,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -942,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,10 +1009,10 @@
     <row r="17" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:15" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="I19" s="12">
@@ -996,7 +1030,7 @@
       <c r="L21" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="45" t="s">
+      <c r="N21" s="35" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1007,17 +1041,17 @@
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
@@ -1031,17 +1065,17 @@
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:15" ht="63" x14ac:dyDescent="0.25">
@@ -1086,20 +1120,20 @@
       <c r="D28" s="16">
         <v>1</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="40">
         <v>2917891</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="42">
         <v>0</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="42">
         <f>E28*15%</f>
         <v>437683.64999999997</v>
       </c>
-      <c r="H28" s="43">
+      <c r="H28" s="44">
         <v>0</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="45">
         <f>H28+G28+F28+E28</f>
         <v>3355574.65</v>
       </c>
@@ -1117,23 +1151,23 @@
       <c r="D29" s="34">
         <v>1</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:15" s="27" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="26">
         <f>SUM(I28:I29)</f>
         <v>3355574.65</v>
